--- a/public/assets/templates/salary_component.xlsx
+++ b/public/assets/templates/salary_component.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NIP</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Hari Kerja</t>
-  </si>
-  <si>
-    <t>Insentif Saldo Cuti</t>
   </si>
   <si>
     <t>BPJS JHT Karyawan</t>
@@ -390,32 +387,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,9 +419,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -460,9 +456,6 @@
       </c>
       <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
